--- a/genmaterial/material.xlsx
+++ b/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002CEF0-B479-4863-B896-FF99156F71E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6359F18-9A68-4D78-992F-C16FF8D7DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -44,24 +44,15 @@
     <t>has_plus</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>Swift Broker</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Cookies</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Shattered Relic</t>
   </si>
   <si>
@@ -167,30 +158,6 @@
     <t>Seeing Doubles</t>
   </si>
   <si>
-    <t>TECHNIQUE</t>
-  </si>
-  <si>
-    <t>PASSIVE</t>
-  </si>
-  <si>
-    <t>macaws</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>raccoons</t>
-  </si>
-  <si>
-    <t>squirrels</t>
-  </si>
-  <si>
-    <t>ocelots</t>
-  </si>
-  <si>
-    <t>chameleons</t>
-  </si>
-  <si>
     <t>animalfolk</t>
   </si>
   <si>
@@ -321,6 +288,33 @@
   </si>
   <si>
     <t>nbr</t>
+  </si>
+  <si>
+    <t>Chameleons</t>
+  </si>
+  <si>
+    <t>Ocelots</t>
+  </si>
+  <si>
+    <t>Squirrels</t>
+  </si>
+  <si>
+    <t>Raccoons</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Macaws</t>
+  </si>
+  <si>
+    <t>playable</t>
+  </si>
+  <si>
+    <t>is_technique</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -638,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844FDD2-A089-4DA9-BD86-839C4E63D72C}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,1129 +643,1010 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="144.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
       <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11">
+        <v>92</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15">
+        <v>92</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18">
+        <v>92</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21">
+        <v>92</v>
+      </c>
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23">
+        <v>92</v>
+      </c>
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25">
+        <v>92</v>
+      </c>
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27">
+        <v>64</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29">
+        <v>92</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30">
+        <v>68</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31">
+        <v>69</v>
+      </c>
+      <c r="G31">
         <v>5</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33">
+        <v>92</v>
+      </c>
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35">
+        <v>92</v>
+      </c>
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36">
         <v>5</v>
       </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
         <v>85</v>
       </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39">
+        <v>76</v>
+      </c>
+      <c r="G39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41">
+        <v>92</v>
+      </c>
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42">
+        <v>79</v>
+      </c>
+      <c r="G42">
         <v>5</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>50</v>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/genmaterial/material.xlsx
+++ b/genmaterial/material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6359F18-9A68-4D78-992F-C16FF8D7DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437AAEDA-5433-4413-B740-19F21848BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,13 +308,13 @@
     <t>Macaws</t>
   </si>
   <si>
-    <t>playable</t>
-  </si>
-  <si>
     <t>is_technique</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>has_active</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,8 +644,7 @@
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="144.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
@@ -662,13 +661,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -811,10 +810,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -857,10 +856,10 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -883,10 +882,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -909,10 +908,10 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -935,10 +934,10 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -961,10 +960,10 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -987,7 +986,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1010,7 +1009,7 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1033,7 +1032,7 @@
         <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1056,7 +1055,7 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1099,10 +1098,10 @@
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1125,10 +1124,10 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1151,10 +1150,10 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1177,10 +1176,10 @@
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1203,10 +1202,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -1229,7 +1228,7 @@
         <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1312,10 +1311,10 @@
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1378,7 +1377,7 @@
         <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1401,10 +1400,10 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1427,10 +1426,10 @@
         <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1453,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1479,10 +1478,10 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -1505,10 +1504,10 @@
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1571,7 +1570,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -1594,10 +1593,10 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41">
         <v>4</v>

--- a/genmaterial/material.xlsx
+++ b/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437AAEDA-5433-4413-B740-19F21848BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97304DD-47CF-4A9D-8121-AA85E791B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>86</v>

--- a/genmaterial/material.xlsx
+++ b/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97304DD-47CF-4A9D-8121-AA85E791B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164159E6-E053-46ED-B1D2-8BF769873C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Loyal Partner</t>
   </si>
   <si>
-    <t>Prepaid Food</t>
-  </si>
-  <si>
     <t>Essential Purchase</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>has_active</t>
+  </si>
+  <si>
+    <t>Prepaid Good</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,31 +652,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -764,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -853,13 +853,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,13 +879,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -894,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,13 +905,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -931,13 +931,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -957,13 +957,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1026,13 +1026,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1049,13 +1049,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,10 +1072,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,16 +1092,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,16 +1118,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1144,16 +1144,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1170,16 +1170,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1196,16 +1196,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,13 +1222,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,10 +1245,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,16 +1305,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,10 +1331,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1351,10 +1351,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,13 +1371,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1394,16 +1394,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1420,16 +1420,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1446,16 +1446,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,16 +1472,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1498,16 +1498,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,10 +1544,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1564,13 +1564,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,16 +1587,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1613,10 +1613,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1633,10 +1633,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
